--- a/Code/Results/Cases/Case_2_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.07197228331284</v>
+        <v>17.28349325868628</v>
       </c>
       <c r="C2">
-        <v>22.44339212099129</v>
+        <v>14.017993757902</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.24841640462259</v>
+        <v>18.30425346541052</v>
       </c>
       <c r="F2">
-        <v>44.95464881253695</v>
+        <v>45.7800782152017</v>
       </c>
       <c r="G2">
-        <v>2.054722814193171</v>
+        <v>3.657627111594185</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.78462495600577</v>
+        <v>24.64803071066424</v>
       </c>
       <c r="J2">
-        <v>5.74941024446666</v>
+        <v>8.899799724719102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.27230119221539</v>
+        <v>16.68866467725297</v>
       </c>
       <c r="C3">
-        <v>20.79383623177391</v>
+        <v>13.39398741640595</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.47571196791511</v>
+        <v>18.20032058424491</v>
       </c>
       <c r="F3">
-        <v>42.5513236307026</v>
+        <v>45.41123953789438</v>
       </c>
       <c r="G3">
-        <v>2.068193890385559</v>
+        <v>3.662031050193564</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.24730866222934</v>
+        <v>24.65729904105183</v>
       </c>
       <c r="J3">
-        <v>5.717318129332537</v>
+        <v>8.924363253756715</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.11293057265067</v>
+        <v>16.31740250672975</v>
       </c>
       <c r="C4">
-        <v>19.73530150034446</v>
+        <v>13.00015566069434</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.98508838690113</v>
+        <v>18.13943525298791</v>
       </c>
       <c r="F4">
-        <v>41.06998960256507</v>
+        <v>45.19867469584737</v>
       </c>
       <c r="G4">
-        <v>2.076589528183656</v>
+        <v>3.664869483473284</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.94911731450791</v>
+        <v>24.67153143813629</v>
       </c>
       <c r="J4">
-        <v>5.704015683454313</v>
+        <v>8.941251572216856</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.62651523851685</v>
+        <v>16.16485327926443</v>
       </c>
       <c r="C5">
-        <v>19.29215474967164</v>
+        <v>12.83723901527339</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.78124666607164</v>
+        <v>18.11538187506929</v>
       </c>
       <c r="F5">
-        <v>40.46527877519045</v>
+        <v>45.11561718094524</v>
       </c>
       <c r="G5">
-        <v>2.080046881500542</v>
+        <v>3.666060109582046</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.83520340090147</v>
+        <v>24.67945972300969</v>
       </c>
       <c r="J5">
-        <v>5.700098287615982</v>
+        <v>8.948585769314764</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54489498685419</v>
+        <v>16.1394547129189</v>
       </c>
       <c r="C6">
-        <v>19.21785083857931</v>
+        <v>12.81004852503425</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.74716843786588</v>
+        <v>18.11143420392848</v>
       </c>
       <c r="F6">
-        <v>40.36481733741993</v>
+        <v>45.10204266121444</v>
       </c>
       <c r="G6">
-        <v>2.080623281674846</v>
+        <v>3.666259866407092</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.81673601539003</v>
+        <v>24.68090416411643</v>
       </c>
       <c r="J6">
-        <v>5.699535602383223</v>
+        <v>8.949830848675637</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.10642750672389</v>
+        <v>16.31534990361521</v>
       </c>
       <c r="C7">
-        <v>19.72937314985504</v>
+        <v>12.99796796743485</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.98235488592117</v>
+        <v>18.13910776480383</v>
       </c>
       <c r="F7">
-        <v>41.06183792010864</v>
+        <v>45.19754003675131</v>
       </c>
       <c r="G7">
-        <v>2.076636003249131</v>
+        <v>3.664885403050554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.94755075673168</v>
+        <v>24.67162977043658</v>
       </c>
       <c r="J7">
-        <v>5.703956901355989</v>
+        <v>8.941348656149966</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.46254530092163</v>
+        <v>17.0797987580323</v>
       </c>
       <c r="C8">
-        <v>21.88392271256745</v>
+        <v>13.80520133210486</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.98542750209447</v>
+        <v>18.26782227716487</v>
       </c>
       <c r="F8">
-        <v>44.12733334371177</v>
+        <v>45.65006024952443</v>
       </c>
       <c r="G8">
-        <v>2.059344879763222</v>
+        <v>3.659117783812929</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.59255031495297</v>
+        <v>24.64944245610975</v>
       </c>
       <c r="J8">
-        <v>5.736950296442942</v>
+        <v>8.907893084909201</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.66620800583392</v>
+        <v>18.52063251527898</v>
       </c>
       <c r="C9">
-        <v>25.76162765230528</v>
+        <v>15.29353185452762</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.8194317027133</v>
+        <v>18.54250883497081</v>
       </c>
       <c r="F9">
-        <v>50.08676053361199</v>
+        <v>46.64440638276633</v>
       </c>
       <c r="G9">
-        <v>2.026177432672911</v>
+        <v>3.648867190633973</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.12590826299691</v>
+        <v>24.67449490160437</v>
       </c>
       <c r="J9">
-        <v>5.857551359196846</v>
+        <v>8.856712241481855</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.52389288342307</v>
+        <v>19.53136087307048</v>
       </c>
       <c r="C10">
-        <v>28.42362434818828</v>
+        <v>16.31821116967722</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.08277875955543</v>
+        <v>18.75655165777082</v>
       </c>
       <c r="F10">
-        <v>54.43949010904922</v>
+        <v>47.43517855923729</v>
       </c>
       <c r="G10">
-        <v>2.001861675880287</v>
+        <v>3.641972701159006</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.44067731644813</v>
+        <v>24.73565622397095</v>
       </c>
       <c r="J10">
-        <v>5.987892606157585</v>
+        <v>8.828031358049238</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.77998884563447</v>
+        <v>19.97859465844454</v>
       </c>
       <c r="C11">
-        <v>29.60078218733941</v>
+        <v>16.76760965482848</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.63948507943694</v>
+        <v>18.8562798843855</v>
       </c>
       <c r="F11">
-        <v>56.42014370150916</v>
+        <v>47.80681832909287</v>
       </c>
       <c r="G11">
-        <v>1.990702445661182</v>
+        <v>3.63897243695019</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.08586387351687</v>
+        <v>24.77292912528343</v>
       </c>
       <c r="J11">
-        <v>6.058152454091666</v>
+        <v>8.816947713869929</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.24994281158779</v>
+        <v>20.1459908006289</v>
       </c>
       <c r="C12">
-        <v>30.04236215624989</v>
+        <v>16.93525762141878</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.84778239779445</v>
+        <v>18.8943574567203</v>
       </c>
       <c r="F12">
-        <v>57.17110401045696</v>
+        <v>47.94915580263211</v>
       </c>
       <c r="G12">
-        <v>1.986451607085562</v>
+        <v>3.63785572564716</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.3375740501349</v>
+        <v>24.78841260955502</v>
       </c>
       <c r="J12">
-        <v>6.086516192871131</v>
+        <v>8.81303510847378</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.14897264299938</v>
+        <v>20.11002858534645</v>
       </c>
       <c r="C13">
-        <v>29.9474340225252</v>
+        <v>16.8992658885665</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.80303207435447</v>
+        <v>18.88614329140362</v>
       </c>
       <c r="F13">
-        <v>57.00931305418187</v>
+        <v>47.91843122207066</v>
       </c>
       <c r="G13">
-        <v>1.987368413839401</v>
+        <v>3.638095367821272</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.28302376580394</v>
+        <v>24.78501693697656</v>
       </c>
       <c r="J13">
-        <v>6.080326231157245</v>
+        <v>8.813865069027665</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.8187626773126</v>
+        <v>19.99240658408568</v>
       </c>
       <c r="C14">
-        <v>29.63719078800645</v>
+        <v>16.78145348549541</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.65667165947356</v>
+        <v>18.8594064364769</v>
       </c>
       <c r="F14">
-        <v>56.48190105267211</v>
+        <v>47.81849696925438</v>
       </c>
       <c r="G14">
-        <v>1.990353299534487</v>
+        <v>3.638880175983005</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.10642007518225</v>
+        <v>24.774175472767</v>
       </c>
       <c r="J14">
-        <v>6.060449603515672</v>
+        <v>8.816620106652632</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.61577670056111</v>
+        <v>19.92009992473458</v>
       </c>
       <c r="C15">
-        <v>29.44663506914373</v>
+        <v>16.70895724842795</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.56669703398456</v>
+        <v>18.84306926347801</v>
       </c>
       <c r="F15">
-        <v>56.15899752876686</v>
+        <v>47.7574901932375</v>
       </c>
       <c r="G15">
-        <v>1.992178001050467</v>
+        <v>3.639363418912003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.99922839252605</v>
+        <v>24.76771331695026</v>
       </c>
       <c r="J15">
-        <v>6.048509297105803</v>
+        <v>8.818344765321759</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.44097077387159</v>
+        <v>19.5018666988559</v>
       </c>
       <c r="C16">
-        <v>28.34606933516987</v>
+        <v>16.28849421564623</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.04603975248158</v>
+        <v>18.75007939077895</v>
       </c>
       <c r="F16">
-        <v>54.31012675800817</v>
+        <v>47.41112164073854</v>
       </c>
       <c r="G16">
-        <v>2.002588091830523</v>
+        <v>3.64217150135671</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.39951080016779</v>
+        <v>24.73341142804979</v>
       </c>
       <c r="J16">
-        <v>5.983536573094114</v>
+        <v>8.828795397714702</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.70942872663559</v>
+        <v>19.24196188379533</v>
       </c>
       <c r="C17">
-        <v>27.66269647283078</v>
+        <v>16.02617388749106</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.72206179017278</v>
+        <v>18.69361854220432</v>
       </c>
       <c r="F17">
-        <v>53.17655949004736</v>
+        <v>47.20161170297249</v>
       </c>
       <c r="G17">
-        <v>2.008942044773871</v>
+        <v>3.643928918545281</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.04407026679511</v>
+        <v>24.7147966331429</v>
       </c>
       <c r="J17">
-        <v>5.946608379775448</v>
+        <v>8.835710975444496</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.2844933496291</v>
+        <v>19.09129821306427</v>
       </c>
       <c r="C18">
-        <v>27.26641056579071</v>
+        <v>15.87372517486202</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.53401730266516</v>
+        <v>18.66136741958339</v>
       </c>
       <c r="F18">
-        <v>52.52454762981819</v>
+        <v>47.08223518388468</v>
       </c>
       <c r="G18">
-        <v>2.012588220870804</v>
+        <v>3.644952554913134</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.84401976028973</v>
+        <v>24.70497893130566</v>
       </c>
       <c r="J18">
-        <v>5.92638849377217</v>
+        <v>8.839873311914742</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.13988410392593</v>
+        <v>19.04008965245382</v>
       </c>
       <c r="C19">
-        <v>27.13166184545307</v>
+        <v>15.82184326632943</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.47005503881106</v>
+        <v>18.65048696181403</v>
       </c>
       <c r="F19">
-        <v>52.30376433626708</v>
+        <v>47.04201330942877</v>
       </c>
       <c r="G19">
-        <v>2.013821606466967</v>
+        <v>3.64530134621352</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.7770229684267</v>
+        <v>24.7018071766225</v>
       </c>
       <c r="J19">
-        <v>5.919712473785184</v>
+        <v>8.841314258933572</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.78773030024847</v>
+        <v>19.26975182131355</v>
       </c>
       <c r="C20">
-        <v>27.73577223343401</v>
+        <v>16.05426167505334</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.75672545180848</v>
+        <v>18.69960593890458</v>
       </c>
       <c r="F20">
-        <v>53.2972259408422</v>
+        <v>47.22379841229207</v>
       </c>
       <c r="G20">
-        <v>2.008266603662819</v>
+        <v>3.643740513068301</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.08144910709455</v>
+        <v>24.71668611818755</v>
       </c>
       <c r="J20">
-        <v>5.950432622678488</v>
+        <v>8.834955670820897</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.91590275433018</v>
+        <v>20.02700941015394</v>
       </c>
       <c r="C21">
-        <v>29.72842431081485</v>
+        <v>16.81612737954116</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.69972872365033</v>
+        <v>18.86725142691443</v>
       </c>
       <c r="F21">
-        <v>56.63678119654097</v>
+        <v>47.84780738158707</v>
       </c>
       <c r="G21">
-        <v>1.989477344722706</v>
+        <v>3.63864913279427</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.15808667742644</v>
+        <v>24.77732264800569</v>
       </c>
       <c r="J21">
-        <v>6.066238581273255</v>
+        <v>8.815803145986813</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.27391022363921</v>
+        <v>20.5104275975112</v>
       </c>
       <c r="C22">
-        <v>31.00675648809495</v>
+        <v>17.29926294280796</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.30144141922177</v>
+        <v>18.97862730957752</v>
       </c>
       <c r="F22">
-        <v>58.85406757499276</v>
+        <v>48.26493963343854</v>
       </c>
       <c r="G22">
-        <v>1.97704462270987</v>
+        <v>3.635434770619967</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.90520442707166</v>
+        <v>24.82493516561482</v>
       </c>
       <c r="J22">
-        <v>6.152273398759032</v>
+        <v>8.804945311501113</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.55189538429519</v>
+        <v>20.25351686671182</v>
       </c>
       <c r="C23">
-        <v>30.32642421606235</v>
+        <v>17.04279327742449</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.98159555188294</v>
+        <v>18.91902716331636</v>
       </c>
       <c r="F23">
-        <v>57.65638535128708</v>
+        <v>48.04149314835995</v>
       </c>
       <c r="G23">
-        <v>1.983698377612841</v>
+        <v>3.637140030501068</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.50223619240075</v>
+        <v>24.79879022720545</v>
       </c>
       <c r="J23">
-        <v>6.105341643874148</v>
+        <v>8.810587788880966</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.75234379013135</v>
+        <v>19.25719184369551</v>
       </c>
       <c r="C24">
-        <v>27.70274533931027</v>
+        <v>16.04156827644568</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.74105957581417</v>
+        <v>18.69689838394675</v>
       </c>
       <c r="F24">
-        <v>53.24267366037216</v>
+        <v>47.21376444906784</v>
       </c>
       <c r="G24">
-        <v>2.008571990958937</v>
+        <v>3.643825649828806</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.06453679435889</v>
+        <v>24.71582912872979</v>
       </c>
       <c r="J24">
-        <v>5.9487005479212</v>
+        <v>8.835296563368185</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.57139076993107</v>
+        <v>18.13844279847545</v>
       </c>
       <c r="C25">
-        <v>24.74745152511789</v>
+        <v>14.90228427140158</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.33799487402969</v>
+        <v>18.4659504362737</v>
       </c>
       <c r="F25">
-        <v>48.48031572139832</v>
+        <v>46.36444841427229</v>
       </c>
       <c r="G25">
-        <v>2.035108504873682</v>
+        <v>3.651527771837502</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.6799256627235</v>
+        <v>24.66027119844235</v>
       </c>
       <c r="J25">
-        <v>5.818189589368591</v>
+        <v>8.869000381205904</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.28349325868628</v>
+        <v>25.07197228331296</v>
       </c>
       <c r="C2">
-        <v>14.017993757902</v>
+        <v>22.44339212099115</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.30425346541052</v>
+        <v>14.24841640462253</v>
       </c>
       <c r="F2">
-        <v>45.7800782152017</v>
+        <v>44.95464881253706</v>
       </c>
       <c r="G2">
-        <v>3.657627111594185</v>
+        <v>2.054722814192903</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.64803071066424</v>
+        <v>20.78462495600581</v>
       </c>
       <c r="J2">
-        <v>8.899799724719102</v>
+        <v>5.749410244466612</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.68866467725297</v>
+        <v>23.27230119221538</v>
       </c>
       <c r="C3">
-        <v>13.39398741640595</v>
+        <v>20.79383623177385</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.20032058424491</v>
+        <v>13.47571196791503</v>
       </c>
       <c r="F3">
-        <v>45.41123953789438</v>
+        <v>42.55132363070267</v>
       </c>
       <c r="G3">
-        <v>3.662031050193564</v>
+        <v>2.068193890385296</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.65729904105183</v>
+        <v>20.24730866222946</v>
       </c>
       <c r="J3">
-        <v>8.924363253756715</v>
+        <v>5.717318129332474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.31740250672975</v>
+        <v>22.11293057265065</v>
       </c>
       <c r="C4">
-        <v>13.00015566069434</v>
+        <v>19.73530150034438</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.13943525298791</v>
+        <v>12.98508838690116</v>
       </c>
       <c r="F4">
-        <v>45.19867469584737</v>
+        <v>41.06998960256508</v>
       </c>
       <c r="G4">
-        <v>3.664869483473284</v>
+        <v>2.07658952818339</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.67153143813629</v>
+        <v>19.94911731450789</v>
       </c>
       <c r="J4">
-        <v>8.941251572216856</v>
+        <v>5.704015683454323</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.16485327926443</v>
+        <v>21.62651523851685</v>
       </c>
       <c r="C5">
-        <v>12.83723901527339</v>
+        <v>19.29215474967152</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.11538187506929</v>
+        <v>12.78124666607156</v>
       </c>
       <c r="F5">
-        <v>45.11561718094524</v>
+        <v>40.46527877519048</v>
       </c>
       <c r="G5">
-        <v>3.666060109582046</v>
+        <v>2.080046881500544</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.67945972300969</v>
+        <v>19.83520340090157</v>
       </c>
       <c r="J5">
-        <v>8.948585769314764</v>
+        <v>5.700098287615961</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1394547129189</v>
+        <v>21.54489498685423</v>
       </c>
       <c r="C6">
-        <v>12.81004852503425</v>
+        <v>19.2178508385793</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.11143420392848</v>
+        <v>12.74716843786587</v>
       </c>
       <c r="F6">
-        <v>45.10204266121444</v>
+        <v>40.36481733741994</v>
       </c>
       <c r="G6">
-        <v>3.666259866407092</v>
+        <v>2.080623281674976</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.68090416411643</v>
+        <v>19.81673601539005</v>
       </c>
       <c r="J6">
-        <v>8.949830848675637</v>
+        <v>5.699535602383249</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.31534990361521</v>
+        <v>22.10642750672386</v>
       </c>
       <c r="C7">
-        <v>12.99796796743485</v>
+        <v>19.72937314985525</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.13910776480383</v>
+        <v>12.98235488592122</v>
       </c>
       <c r="F7">
-        <v>45.19754003675131</v>
+        <v>41.06183792010873</v>
       </c>
       <c r="G7">
-        <v>3.664885403050554</v>
+        <v>2.076636003249398</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.67162977043658</v>
+        <v>19.94755075673175</v>
       </c>
       <c r="J7">
-        <v>8.941348656149966</v>
+        <v>5.703956901356002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.0797987580323</v>
+        <v>24.46254530092168</v>
       </c>
       <c r="C8">
-        <v>13.80520133210486</v>
+        <v>21.88392271256746</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.26782227716487</v>
+        <v>13.98542750209446</v>
       </c>
       <c r="F8">
-        <v>45.65006024952443</v>
+        <v>44.12733334371177</v>
       </c>
       <c r="G8">
-        <v>3.659117783812929</v>
+        <v>2.059344879763226</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.64944245610975</v>
+        <v>20.59255031495292</v>
       </c>
       <c r="J8">
-        <v>8.907893084909201</v>
+        <v>5.736950296442905</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.52063251527898</v>
+        <v>28.66620800583381</v>
       </c>
       <c r="C9">
-        <v>15.29353185452762</v>
+        <v>25.76162765230519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.54250883497081</v>
+        <v>15.8194317027133</v>
       </c>
       <c r="F9">
-        <v>46.64440638276633</v>
+        <v>50.08676053361195</v>
       </c>
       <c r="G9">
-        <v>3.648867190633973</v>
+        <v>2.026177432673047</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.67449490160437</v>
+        <v>22.12590826299695</v>
       </c>
       <c r="J9">
-        <v>8.856712241481855</v>
+        <v>5.85755135919683</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.53136087307048</v>
+        <v>31.52389288342315</v>
       </c>
       <c r="C10">
-        <v>16.31821116967722</v>
+        <v>28.42362434818835</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.75655165777082</v>
+        <v>17.08277875955531</v>
       </c>
       <c r="F10">
-        <v>47.43517855923729</v>
+        <v>54.43949010904935</v>
       </c>
       <c r="G10">
-        <v>3.641972701159006</v>
+        <v>2.001861675880289</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.73565622397095</v>
+        <v>23.44067731644831</v>
       </c>
       <c r="J10">
-        <v>8.828031358049238</v>
+        <v>5.987892606157589</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.97859465844454</v>
+        <v>32.77998884563437</v>
       </c>
       <c r="C11">
-        <v>16.76760965482848</v>
+        <v>29.60078218733939</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.8562798843855</v>
+        <v>17.63948507943696</v>
       </c>
       <c r="F11">
-        <v>47.80681832909287</v>
+        <v>56.42014370150914</v>
       </c>
       <c r="G11">
-        <v>3.63897243695019</v>
+        <v>1.990702445661311</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.77292912528343</v>
+        <v>24.08586387351691</v>
       </c>
       <c r="J11">
-        <v>8.816947713869929</v>
+        <v>6.058152454091655</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.1459908006289</v>
+        <v>33.24994281158772</v>
       </c>
       <c r="C12">
-        <v>16.93525762141878</v>
+        <v>30.04236215624984</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.8943574567203</v>
+        <v>17.84778239779448</v>
       </c>
       <c r="F12">
-        <v>47.94915580263211</v>
+        <v>57.17110401045701</v>
       </c>
       <c r="G12">
-        <v>3.63785572564716</v>
+        <v>1.986451607085425</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.78841260955502</v>
+        <v>24.33757405013491</v>
       </c>
       <c r="J12">
-        <v>8.81303510847378</v>
+        <v>6.086516192871122</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11002858534645</v>
+        <v>33.14897264299955</v>
       </c>
       <c r="C13">
-        <v>16.8992658885665</v>
+        <v>29.94743402252529</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.88614329140362</v>
+        <v>17.80303207435438</v>
       </c>
       <c r="F13">
-        <v>47.91843122207066</v>
+        <v>57.00931305418213</v>
       </c>
       <c r="G13">
-        <v>3.638095367821272</v>
+        <v>1.987368413839268</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.78501693697656</v>
+        <v>24.28302376580412</v>
       </c>
       <c r="J13">
-        <v>8.813865069027665</v>
+        <v>6.080326231157266</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.99240658408568</v>
+        <v>32.81876267731255</v>
       </c>
       <c r="C14">
-        <v>16.78145348549541</v>
+        <v>29.63719078800638</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.8594064364769</v>
+        <v>17.65667165947354</v>
       </c>
       <c r="F14">
-        <v>47.81849696925438</v>
+        <v>56.48190105267199</v>
       </c>
       <c r="G14">
-        <v>3.638880175983005</v>
+        <v>1.99035329953435</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.774175472767</v>
+        <v>24.10642007518222</v>
       </c>
       <c r="J14">
-        <v>8.816620106652632</v>
+        <v>6.060449603515631</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.92009992473458</v>
+        <v>32.61577670056106</v>
       </c>
       <c r="C15">
-        <v>16.70895724842795</v>
+        <v>29.44663506914358</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.84306926347801</v>
+        <v>17.56669703398467</v>
       </c>
       <c r="F15">
-        <v>47.7574901932375</v>
+        <v>56.15899752876672</v>
       </c>
       <c r="G15">
-        <v>3.639363418912003</v>
+        <v>1.992178001050334</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.76771331695026</v>
+        <v>23.99922839252594</v>
       </c>
       <c r="J15">
-        <v>8.818344765321759</v>
+        <v>6.048509297105798</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.5018666988559</v>
+        <v>31.44097077387148</v>
       </c>
       <c r="C16">
-        <v>16.28849421564623</v>
+        <v>28.3460693351698</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.75007939077895</v>
+        <v>17.04603975248168</v>
       </c>
       <c r="F16">
-        <v>47.41112164073854</v>
+        <v>54.3101267580081</v>
       </c>
       <c r="G16">
-        <v>3.64217150135671</v>
+        <v>2.002588091830658</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.73341142804979</v>
+        <v>23.39951080016779</v>
       </c>
       <c r="J16">
-        <v>8.828795397714702</v>
+        <v>5.983536573094185</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.24196188379533</v>
+        <v>30.70942872663562</v>
       </c>
       <c r="C17">
-        <v>16.02617388749106</v>
+        <v>27.66269647283071</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.69361854220432</v>
+        <v>16.72206179017275</v>
       </c>
       <c r="F17">
-        <v>47.20161170297249</v>
+        <v>53.17655949004732</v>
       </c>
       <c r="G17">
-        <v>3.643928918545281</v>
+        <v>2.008942044774009</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.7147966331429</v>
+        <v>23.0440702667951</v>
       </c>
       <c r="J17">
-        <v>8.835710975444496</v>
+        <v>5.946608379775476</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.09129821306427</v>
+        <v>30.28449334962906</v>
       </c>
       <c r="C18">
-        <v>15.87372517486202</v>
+        <v>27.26641056579062</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.66136741958339</v>
+        <v>16.53401730266512</v>
       </c>
       <c r="F18">
-        <v>47.08223518388468</v>
+        <v>52.52454762981819</v>
       </c>
       <c r="G18">
-        <v>3.644952554913134</v>
+        <v>2.012588220870677</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.70497893130566</v>
+        <v>22.84401976028978</v>
       </c>
       <c r="J18">
-        <v>8.839873311914742</v>
+        <v>5.926388493772159</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.04008965245382</v>
+        <v>30.13988410392609</v>
       </c>
       <c r="C19">
-        <v>15.82184326632943</v>
+        <v>27.1316618454533</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.65048696181403</v>
+        <v>16.47005503881091</v>
       </c>
       <c r="F19">
-        <v>47.04201330942877</v>
+        <v>52.30376433626726</v>
       </c>
       <c r="G19">
-        <v>3.64530134621352</v>
+        <v>2.013821606466838</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.7018071766225</v>
+        <v>22.77702296842681</v>
       </c>
       <c r="J19">
-        <v>8.841314258933572</v>
+        <v>5.919712473785217</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.26975182131355</v>
+        <v>30.78773030024858</v>
       </c>
       <c r="C20">
-        <v>16.05426167505334</v>
+        <v>27.73577223343405</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.69960593890458</v>
+        <v>16.7567254518085</v>
       </c>
       <c r="F20">
-        <v>47.22379841229207</v>
+        <v>53.29722594084229</v>
       </c>
       <c r="G20">
-        <v>3.643740513068301</v>
+        <v>2.008266603662819</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.71668611818755</v>
+        <v>23.08144910709456</v>
       </c>
       <c r="J20">
-        <v>8.834955670820897</v>
+        <v>5.950432622678488</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.02700941015394</v>
+        <v>32.9159027543302</v>
       </c>
       <c r="C21">
-        <v>16.81612737954116</v>
+        <v>29.72842431081496</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.86725142691443</v>
+        <v>17.69972872365026</v>
       </c>
       <c r="F21">
-        <v>47.84780738158707</v>
+        <v>56.63678119654109</v>
       </c>
       <c r="G21">
-        <v>3.63864913279427</v>
+        <v>1.989477344722962</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.77732264800569</v>
+        <v>24.15808667742657</v>
       </c>
       <c r="J21">
-        <v>8.815803145986813</v>
+        <v>6.066238581273279</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.5104275975112</v>
+        <v>34.27391022363921</v>
       </c>
       <c r="C22">
-        <v>17.29926294280796</v>
+        <v>31.00675648809494</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.97862730957752</v>
+        <v>18.30144141922175</v>
       </c>
       <c r="F22">
-        <v>48.26493963343854</v>
+        <v>58.85406757499276</v>
       </c>
       <c r="G22">
-        <v>3.635434770619967</v>
+        <v>1.977044622709995</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.82493516561482</v>
+        <v>24.90520442707171</v>
       </c>
       <c r="J22">
-        <v>8.804945311501113</v>
+        <v>6.152273398759027</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.25351686671182</v>
+        <v>33.55189538429514</v>
       </c>
       <c r="C23">
-        <v>17.04279327742449</v>
+        <v>30.32642421606229</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.91902716331636</v>
+        <v>17.98159555188288</v>
       </c>
       <c r="F23">
-        <v>48.04149314835995</v>
+        <v>57.65638535128706</v>
       </c>
       <c r="G23">
-        <v>3.637140030501068</v>
+        <v>1.983698377612573</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.79879022720545</v>
+        <v>24.5022361924008</v>
       </c>
       <c r="J23">
-        <v>8.810587788880966</v>
+        <v>6.10534164387419</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.25719184369551</v>
+        <v>30.75234379013146</v>
       </c>
       <c r="C24">
-        <v>16.04156827644568</v>
+        <v>27.70274533931039</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.69689838394675</v>
+        <v>16.74105957581425</v>
       </c>
       <c r="F24">
-        <v>47.21376444906784</v>
+        <v>53.2426736603722</v>
       </c>
       <c r="G24">
-        <v>3.643825649828806</v>
+        <v>2.008571990958929</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.71582912872979</v>
+        <v>23.06453679435874</v>
       </c>
       <c r="J24">
-        <v>8.835296563368185</v>
+        <v>5.948700547921184</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.13844279847545</v>
+        <v>27.57139076993109</v>
       </c>
       <c r="C25">
-        <v>14.90228427140158</v>
+        <v>24.74745152511788</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.4659504362737</v>
+        <v>15.33799487402964</v>
       </c>
       <c r="F25">
-        <v>46.36444841427229</v>
+        <v>48.48031572139839</v>
       </c>
       <c r="G25">
-        <v>3.651527771837502</v>
+        <v>2.035108504873946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.66027119844235</v>
+        <v>21.67992566272358</v>
       </c>
       <c r="J25">
-        <v>8.869000381205904</v>
+        <v>5.818189589368593</v>
       </c>
       <c r="K25">
         <v>0</v>
